--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Documents\PRUEBAS PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F3D03B-A104-44C0-A16F-E19334F65634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8667D97A-1BA7-409B-B983-054BA9010247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC0073FE-0557-429E-9579-2F1549435135}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>entrada</t>
   </si>
@@ -66,9 +66,6 @@
     <t>"En el trayecto hay una pared en zig zag y cuadros en la pared."</t>
   </si>
   <si>
-    <t>salida</t>
-  </si>
-  <si>
     <t>"si se encuentra en la salida de la habitación principal, camine de frente por la pared izquierda hasta encontrar la primera puerta."</t>
   </si>
   <si>
@@ -100,13 +97,16 @@
   </si>
   <si>
     <t>secundaria</t>
+  </si>
+  <si>
+    <t>regreso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -174,6 +182,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941808A7-5111-452C-B79C-3C7BABB17315}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A7" sqref="A7:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,28 +509,32 @@
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="37.33203125" customWidth="1"/>
     <col min="4" max="4" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -529,20 +542,26 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -555,8 +574,11 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -569,8 +591,11 @@
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,74 +608,39 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Documents\PRUEBAS PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8667D97A-1BA7-409B-B983-054BA9010247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18633DE-4100-479F-9DA8-6B58264F9D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC0073FE-0557-429E-9579-2F1549435135}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>entrada</t>
   </si>
@@ -99,7 +99,7 @@
     <t>secundaria</t>
   </si>
   <si>
-    <t>regreso</t>
+    <t>salida</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,11 +525,9 @@
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,9 +540,7 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -557,9 +553,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -574,11 +568,9 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -591,9 +583,7 @@
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -608,39 +598,75 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Documents\PRUEBAS PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18633DE-4100-479F-9DA8-6B58264F9D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB94BEDC-DA56-4D0A-A8B0-1B3591026B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC0073FE-0557-429E-9579-2F1549435135}"/>
   </bookViews>
@@ -25,61 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
-  <si>
-    <t>entrada</t>
-  </si>
-  <si>
-    <t>"gira a la derecha y camina de frente hasta encontrar la primera puerta."</t>
-  </si>
-  <si>
-    <t>"Cuidado, piso resbaladizo."</t>
-  </si>
-  <si>
-    <t>"gira a la izquierda y camina por la pared de la derecha hasta encontrar la primera puerta."</t>
-  </si>
-  <si>
-    <t>cocina</t>
-  </si>
-  <si>
-    <t>"gira a la izquierda y camina por la pared derecha hasta encontrar la segunda puerta."</t>
-  </si>
-  <si>
-    <t>"En el trayecto pueden haber materas sobre la pared derecha."</t>
-  </si>
-  <si>
-    <t>baño</t>
-  </si>
-  <si>
-    <t>"gira a la izquierda y camina por la pared izquierda hasta encontrar la primer puerta."</t>
-  </si>
-  <si>
-    <t>"En el trayecto hay una pared en zig zag."</t>
-  </si>
-  <si>
-    <t>patio</t>
-  </si>
-  <si>
-    <t>"gira a la izquierda y camina por la pared izquierda hasta el final del pasillo, allí encontrará la puerta del patio."</t>
-  </si>
-  <si>
-    <t>"En el trayecto hay una pared en zig zag y cuadros en la pared."</t>
-  </si>
-  <si>
-    <t>"si se encuentra en la salida de la habitación principal, camine de frente por la pared izquierda hasta encontrar la primera puerta."</t>
-  </si>
-  <si>
-    <t>"si se encuentra en la salida de la habitación secundaria, gire a la izquierda y camine de frente por la pared derecha hasta encontrar la primera puerta."</t>
-  </si>
-  <si>
-    <t>"si se encuentra en la salida de la cocina, gire a la izquierda y camine de frente por la pared derecha hasta encontrar la primera puerta."</t>
-  </si>
-  <si>
-    <t>"si se encuentra en la salida del baño, gire a la derecha y camine de frente por la pared derecha hasta encontrar la primera puerta."</t>
-  </si>
-  <si>
-    <t>"si se encuentra en la salida del patio, camine de frente por la pared derecha hasta encontrar la primera puerta."</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>origen</t>
   </si>
@@ -93,13 +39,49 @@
     <t>instruccion</t>
   </si>
   <si>
-    <t>principal</t>
-  </si>
-  <si>
-    <t>secundaria</t>
-  </si>
-  <si>
-    <t>salida</t>
+    <t>entrada principal</t>
+  </si>
+  <si>
+    <t>base escaleras</t>
+  </si>
+  <si>
+    <t>"Camine recto por el pasillo principal unos 10 metros.."</t>
+  </si>
+  <si>
+    <t>"Cuidado, escaleras en ascenso."</t>
+  </si>
+  <si>
+    <t>segundo piso</t>
+  </si>
+  <si>
+    <t>"Suba las escaleras principales hasta el  segundo descanso."</t>
+  </si>
+  <si>
+    <t>"Precaución, escalones resbaladizos"</t>
+  </si>
+  <si>
+    <t>concejo municipal</t>
+  </si>
+  <si>
+    <t>"Gire a la derecha, siga por la pared derecha hasta la primer puerta."</t>
+  </si>
+  <si>
+    <t>"Cuidado con el extintor en la pared derecha"</t>
+  </si>
+  <si>
+    <t>despacho municipal</t>
+  </si>
+  <si>
+    <t>"Gire a la derecha, siga hasta el final del pasillo hasta encontrar una puerta en vidrio."</t>
+  </si>
+  <si>
+    <t>tesoreria</t>
+  </si>
+  <si>
+    <t>"gira a la izquierda y camina por la pared izquierda hasta el final del pasillo."</t>
+  </si>
+  <si>
+    <t>"Cuidado, sillas ubicadas sobre la pared izquierda"</t>
   </si>
 </sst>
 </file>
@@ -171,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -183,6 +165,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +483,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A7" sqref="A7:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,161 +497,126 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Documents\PRUEBAS PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB94BEDC-DA56-4D0A-A8B0-1B3591026B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD899F7-CC9D-46CC-B74B-E221DF7C5BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC0073FE-0557-429E-9579-2F1549435135}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>instruccion</t>
   </si>
   <si>
-    <t>entrada principal</t>
-  </si>
-  <si>
     <t>base escaleras</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>"Cuidado, sillas ubicadas sobre la pared izquierda"</t>
+  </si>
+  <si>
+    <t>entrada</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,76 +512,76 @@
     </row>
     <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="2"/>
     </row>

--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Documents\PRUEBAS PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD899F7-CC9D-46CC-B74B-E221DF7C5BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB57D1B-C3AA-4AB3-BFD3-5F9F0F0D17F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC0073FE-0557-429E-9579-2F1549435135}"/>
   </bookViews>
@@ -57,24 +57,15 @@
     <t>"Precaución, escalones resbaladizos"</t>
   </si>
   <si>
-    <t>concejo municipal</t>
-  </si>
-  <si>
     <t>"Gire a la derecha, siga por la pared derecha hasta la primer puerta."</t>
   </si>
   <si>
     <t>"Cuidado con el extintor en la pared derecha"</t>
   </si>
   <si>
-    <t>despacho municipal</t>
-  </si>
-  <si>
     <t>"Gire a la derecha, siga hasta el final del pasillo hasta encontrar una puerta en vidrio."</t>
   </si>
   <si>
-    <t>tesoreria</t>
-  </si>
-  <si>
     <t>"gira a la izquierda y camina por la pared izquierda hasta el final del pasillo."</t>
   </si>
   <si>
@@ -82,6 +73,15 @@
   </si>
   <si>
     <t>entrada</t>
+  </si>
+  <si>
+    <t>concejo</t>
+  </si>
+  <si>
+    <t>despacho</t>
+  </si>
+  <si>
+    <t>cobro coactivo</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
     </row>
     <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -545,13 +545,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -560,13 +560,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -575,13 +575,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2"/>
     </row>

--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Documents\PRUEBAS PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB57D1B-C3AA-4AB3-BFD3-5F9F0F0D17F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3AB6EF-84AF-4C4F-8FF8-5AC091491FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC0073FE-0557-429E-9579-2F1549435135}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>origen</t>
   </si>
@@ -51,12 +51,6 @@
     <t>segundo piso</t>
   </si>
   <si>
-    <t>"Suba las escaleras principales hasta el  segundo descanso."</t>
-  </si>
-  <si>
-    <t>"Precaución, escalones resbaladizos"</t>
-  </si>
-  <si>
     <t>"Gire a la derecha, siga por la pared derecha hasta la primer puerta."</t>
   </si>
   <si>
@@ -75,13 +69,25 @@
     <t>entrada</t>
   </si>
   <si>
-    <t>concejo</t>
-  </si>
-  <si>
     <t>despacho</t>
   </si>
   <si>
     <t>cobro coactivo</t>
+  </si>
+  <si>
+    <t>"Suba las escaleras principales hasta el  segundo descanso, llegará al segundo piso."</t>
+  </si>
+  <si>
+    <t>consejo</t>
+  </si>
+  <si>
+    <t>"escalones resbaladizos"</t>
+  </si>
+  <si>
+    <t>informacion</t>
+  </si>
+  <si>
+    <t>" consejo, despacho, cobro coactivo"</t>
   </si>
 </sst>
 </file>
@@ -512,7 +518,7 @@
     </row>
     <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -525,7 +531,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -533,10 +539,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -545,13 +551,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -560,13 +566,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -575,20 +581,24 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
